--- a/AccessibleDashboardData/2021-07-30.xlsx
+++ b/AccessibleDashboardData/2021-07-30.xlsx
@@ -5197,7 +5197,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>33492</v>
+        <v>33275</v>
       </c>
       <c r="C22">
         <v>7714</v>
@@ -6499,7 +6499,7 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>1233</v>
+        <v>1059</v>
       </c>
       <c r="C115">
         <v>967</v>
@@ -7199,7 +7199,7 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>3864</v>
+        <v>3630</v>
       </c>
       <c r="C165">
         <v>1420</v>
@@ -7731,7 +7731,7 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>2912</v>
+        <v>2815</v>
       </c>
       <c r="C203">
         <v>2013</v>
@@ -22784,10 +22784,10 @@
         <v>781</v>
       </c>
       <c r="B518">
-        <v>2642424</v>
+        <v>2641702</v>
       </c>
       <c r="C518">
-        <v>13871</v>
+        <v>13149</v>
       </c>
       <c r="D518">
         <v>471101</v>
@@ -22830,7 +22830,7 @@
         <v>2932687</v>
       </c>
       <c r="B4">
-        <v>91387</v>
+        <v>91170</v>
       </c>
     </row>
     <row r="6" spans="1:2">
